--- a/autoconsumo_cargas.xlsx
+++ b/autoconsumo_cargas.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Cargas" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Dimensionamiento" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Autoconsumo híbrido" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1128,6 +1129,9 @@
           <t>TOTAL</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>15725</v>
+      </c>
       <c r="F20" t="n">
         <v>22325</v>
       </c>
@@ -1157,7 +1161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1236,7 +1240,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Capacidad banco 48V @80% DoD</t>
+          <t>Capacidad banco 48V @80% DoD (Plomo)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1246,58 +1250,281 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Protege baterías</t>
+          <t>Protege baterías plomo</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Potencia FV sugerida</t>
+          <t>Capacidad banco 48V @90% DoD (LiFePO4)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.58 kWp</t>
+          <t>516.8 Ah</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PSH=5h, pérdidas 20%</t>
+          <t>Mayor profundidad de descarga</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tensión/Inversor</t>
+          <t>Energía útil LiFePO4 requerida</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>48 Vcc / 60 Hz</t>
+          <t>24.81 kWh</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sistema híbrido</t>
+          <t>1 día @90% DoD</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Módulos LiFePO4 5.12 kWh</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5 unidades</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Cada módulo ≈100 Ah</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Potencia FV sugerida</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5.58 kWp</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PSH=5h, pérdidas 20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Tensión/Inversor</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>48 Vcc / 60 Hz</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sistema híbrido monofásico</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Notas</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ajustar datos con fichas reales</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Valores de referencia</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Supuesto</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Potencia pico considerada</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8.8 kW</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Suma de las 3 cargas mayores</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Inversor híbrido sugerido</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>11.0 kW</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Margen 25% sobre pico</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Corriente DC @pico</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>229 A</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Inversor 48 Vcc</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Carga promedio diaria</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.93 kW</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Energía / 24h</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Banco LiFePO4 recomendado</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5 x 5.12 kWh</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DoD 90%, ≈{capacitatea:=round(capacidad_banco_life_ah)} Ah</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Reserva considerada</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1 día</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Replicar módulo para más días</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Frecuencia de salida</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ajustar datos con fichas reales</t>
+          <t>60 Hz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Valores de referencia</t>
+          <t>Monofásico 110 V</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Notas</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Asegurar C-rate compatible con arranques</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Agregar cargas críticas</t>
         </is>
       </c>
     </row>

--- a/autoconsumo_cargas.xlsx
+++ b/autoconsumo_cargas.xlsx
@@ -487,23 +487,28 @@
       <c r="C2" t="n">
         <v>1500</v>
       </c>
-      <c r="D2" t="n">
-        <v>1500</v>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v/>
       </c>
       <c r="E2" t="n">
         <v>1.5</v>
       </c>
-      <c r="F2" t="n">
-        <v>2250</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2250</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.25</v>
+      <c r="F2">
+        <f>D2*E2</f>
+        <v/>
+      </c>
+      <c r="G2">
+        <f>F2/1000</f>
+        <v/>
+      </c>
+      <c r="H2">
+        <f>F2*Dimensionamiento!$B$9</f>
+        <v/>
+      </c>
+      <c r="I2">
+        <f>H2/1000</f>
+        <v/>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -523,23 +528,28 @@
       <c r="C3" t="n">
         <v>1000</v>
       </c>
-      <c r="D3" t="n">
-        <v>1000</v>
+      <c r="D3">
+        <f>B3*C3</f>
+        <v/>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
+      <c r="F3">
+        <f>D3*E3</f>
+        <v/>
+      </c>
+      <c r="G3">
+        <f>F3/1000</f>
+        <v/>
+      </c>
+      <c r="H3">
+        <f>F3*Dimensionamiento!$B$9</f>
+        <v/>
+      </c>
+      <c r="I3">
+        <f>H3/1000</f>
+        <v/>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -559,23 +569,28 @@
       <c r="C4" t="n">
         <v>1800</v>
       </c>
-      <c r="D4" t="n">
-        <v>1800</v>
+      <c r="D4">
+        <f>B4*C4</f>
+        <v/>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
-        <v>1800</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1800</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.8</v>
+      <c r="F4">
+        <f>D4*E4</f>
+        <v/>
+      </c>
+      <c r="G4">
+        <f>F4/1000</f>
+        <v/>
+      </c>
+      <c r="H4">
+        <f>F4*Dimensionamiento!$B$9</f>
+        <v/>
+      </c>
+      <c r="I4">
+        <f>H4/1000</f>
+        <v/>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -595,23 +610,28 @@
       <c r="C5" t="n">
         <v>150</v>
       </c>
-      <c r="D5" t="n">
-        <v>150</v>
+      <c r="D5">
+        <f>B5*C5</f>
+        <v/>
       </c>
       <c r="E5" t="n">
         <v>8</v>
       </c>
-      <c r="F5" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1200</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.2</v>
+      <c r="F5">
+        <f>D5*E5</f>
+        <v/>
+      </c>
+      <c r="G5">
+        <f>F5/1000</f>
+        <v/>
+      </c>
+      <c r="H5">
+        <f>F5*Dimensionamiento!$B$9</f>
+        <v/>
+      </c>
+      <c r="I5">
+        <f>H5/1000</f>
+        <v/>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -631,23 +651,28 @@
       <c r="C6" t="n">
         <v>120</v>
       </c>
-      <c r="D6" t="n">
-        <v>120</v>
+      <c r="D6">
+        <f>B6*C6</f>
+        <v/>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
-      <c r="F6" t="n">
-        <v>960</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="H6" t="n">
-        <v>960</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.96</v>
+      <c r="F6">
+        <f>D6*E6</f>
+        <v/>
+      </c>
+      <c r="G6">
+        <f>F6/1000</f>
+        <v/>
+      </c>
+      <c r="H6">
+        <f>F6*Dimensionamiento!$B$9</f>
+        <v/>
+      </c>
+      <c r="I6">
+        <f>H6/1000</f>
+        <v/>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -667,23 +692,28 @@
       <c r="C7" t="n">
         <v>1500</v>
       </c>
-      <c r="D7" t="n">
-        <v>1500</v>
+      <c r="D7">
+        <f>B7*C7</f>
+        <v/>
       </c>
       <c r="E7" t="n">
         <v>0.75</v>
       </c>
-      <c r="F7" t="n">
-        <v>1125</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1125</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.125</v>
+      <c r="F7">
+        <f>D7*E7</f>
+        <v/>
+      </c>
+      <c r="G7">
+        <f>F7/1000</f>
+        <v/>
+      </c>
+      <c r="H7">
+        <f>F7*Dimensionamiento!$B$9</f>
+        <v/>
+      </c>
+      <c r="I7">
+        <f>H7/1000</f>
+        <v/>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -703,23 +733,28 @@
       <c r="C8" t="n">
         <v>300</v>
       </c>
-      <c r="D8" t="n">
-        <v>300</v>
+      <c r="D8">
+        <f>B8*C8</f>
+        <v/>
       </c>
       <c r="E8" t="n">
         <v>0.2</v>
       </c>
-      <c r="F8" t="n">
-        <v>60</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H8" t="n">
-        <v>60</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.06</v>
+      <c r="F8">
+        <f>D8*E8</f>
+        <v/>
+      </c>
+      <c r="G8">
+        <f>F8/1000</f>
+        <v/>
+      </c>
+      <c r="H8">
+        <f>F8*Dimensionamiento!$B$9</f>
+        <v/>
+      </c>
+      <c r="I8">
+        <f>H8/1000</f>
+        <v/>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -739,23 +774,28 @@
       <c r="C9" t="n">
         <v>1200</v>
       </c>
-      <c r="D9" t="n">
-        <v>1200</v>
+      <c r="D9">
+        <f>B9*C9</f>
+        <v/>
       </c>
       <c r="E9" t="n">
         <v>0.5</v>
       </c>
-      <c r="F9" t="n">
-        <v>600</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>600</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.6</v>
+      <c r="F9">
+        <f>D9*E9</f>
+        <v/>
+      </c>
+      <c r="G9">
+        <f>F9/1000</f>
+        <v/>
+      </c>
+      <c r="H9">
+        <f>F9*Dimensionamiento!$B$9</f>
+        <v/>
+      </c>
+      <c r="I9">
+        <f>H9/1000</f>
+        <v/>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -775,23 +815,28 @@
       <c r="C10" t="n">
         <v>500</v>
       </c>
-      <c r="D10" t="n">
-        <v>500</v>
+      <c r="D10">
+        <f>B10*C10</f>
+        <v/>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
-        <v>500</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>500</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.5</v>
+      <c r="F10">
+        <f>D10*E10</f>
+        <v/>
+      </c>
+      <c r="G10">
+        <f>F10/1000</f>
+        <v/>
+      </c>
+      <c r="H10">
+        <f>F10*Dimensionamiento!$B$9</f>
+        <v/>
+      </c>
+      <c r="I10">
+        <f>H10/1000</f>
+        <v/>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -811,23 +856,28 @@
       <c r="C11" t="n">
         <v>5500</v>
       </c>
-      <c r="D11" t="n">
-        <v>5500</v>
+      <c r="D11">
+        <f>B11*C11</f>
+        <v/>
       </c>
       <c r="E11" t="n">
         <v>0.2</v>
       </c>
-      <c r="F11" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.1</v>
+      <c r="F11">
+        <f>D11*E11</f>
+        <v/>
+      </c>
+      <c r="G11">
+        <f>F11/1000</f>
+        <v/>
+      </c>
+      <c r="H11">
+        <f>F11*Dimensionamiento!$B$9</f>
+        <v/>
+      </c>
+      <c r="I11">
+        <f>H11/1000</f>
+        <v/>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -847,23 +897,28 @@
       <c r="C12" t="n">
         <v>120</v>
       </c>
-      <c r="D12" t="n">
-        <v>120</v>
+      <c r="D12">
+        <f>B12*C12</f>
+        <v/>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
-      <c r="F12" t="n">
-        <v>600</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>600</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.6</v>
+      <c r="F12">
+        <f>D12*E12</f>
+        <v/>
+      </c>
+      <c r="G12">
+        <f>F12/1000</f>
+        <v/>
+      </c>
+      <c r="H12">
+        <f>F12*Dimensionamiento!$B$9</f>
+        <v/>
+      </c>
+      <c r="I12">
+        <f>H12/1000</f>
+        <v/>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -883,23 +938,28 @@
       <c r="C13" t="n">
         <v>60</v>
       </c>
-      <c r="D13" t="n">
-        <v>240</v>
+      <c r="D13">
+        <f>B13*C13</f>
+        <v/>
       </c>
       <c r="E13" t="n">
         <v>6</v>
       </c>
-      <c r="F13" t="n">
-        <v>1440</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1440</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.44</v>
+      <c r="F13">
+        <f>D13*E13</f>
+        <v/>
+      </c>
+      <c r="G13">
+        <f>F13/1000</f>
+        <v/>
+      </c>
+      <c r="H13">
+        <f>F13*Dimensionamiento!$B$9</f>
+        <v/>
+      </c>
+      <c r="I13">
+        <f>H13/1000</f>
+        <v/>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -919,23 +979,28 @@
       <c r="C14" t="n">
         <v>12</v>
       </c>
-      <c r="D14" t="n">
-        <v>180</v>
+      <c r="D14">
+        <f>B14*C14</f>
+        <v/>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
-      <c r="F14" t="n">
-        <v>900</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>900</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.9</v>
+      <c r="F14">
+        <f>D14*E14</f>
+        <v/>
+      </c>
+      <c r="G14">
+        <f>F14/1000</f>
+        <v/>
+      </c>
+      <c r="H14">
+        <f>F14*Dimensionamiento!$B$9</f>
+        <v/>
+      </c>
+      <c r="I14">
+        <f>H14/1000</f>
+        <v/>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -955,23 +1020,28 @@
       <c r="C15" t="n">
         <v>900</v>
       </c>
-      <c r="D15" t="n">
-        <v>900</v>
+      <c r="D15">
+        <f>B15*C15</f>
+        <v/>
       </c>
       <c r="E15" t="n">
         <v>8</v>
       </c>
-      <c r="F15" t="n">
-        <v>7200</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7200</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7.2</v>
+      <c r="F15">
+        <f>D15*E15</f>
+        <v/>
+      </c>
+      <c r="G15">
+        <f>F15/1000</f>
+        <v/>
+      </c>
+      <c r="H15">
+        <f>F15*Dimensionamiento!$B$9</f>
+        <v/>
+      </c>
+      <c r="I15">
+        <f>H15/1000</f>
+        <v/>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -991,23 +1061,28 @@
       <c r="C16" t="n">
         <v>10</v>
       </c>
-      <c r="D16" t="n">
-        <v>20</v>
+      <c r="D16">
+        <f>B16*C16</f>
+        <v/>
       </c>
       <c r="E16" t="n">
         <v>3</v>
       </c>
-      <c r="F16" t="n">
-        <v>60</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H16" t="n">
-        <v>60</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.06</v>
+      <c r="F16">
+        <f>D16*E16</f>
+        <v/>
+      </c>
+      <c r="G16">
+        <f>F16/1000</f>
+        <v/>
+      </c>
+      <c r="H16">
+        <f>F16*Dimensionamiento!$B$9</f>
+        <v/>
+      </c>
+      <c r="I16">
+        <f>H16/1000</f>
+        <v/>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1027,23 +1102,28 @@
       <c r="C17" t="n">
         <v>600</v>
       </c>
-      <c r="D17" t="n">
-        <v>600</v>
+      <c r="D17">
+        <f>B17*C17</f>
+        <v/>
       </c>
       <c r="E17" t="n">
         <v>2</v>
       </c>
-      <c r="F17" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1200</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.2</v>
+      <c r="F17">
+        <f>D17*E17</f>
+        <v/>
+      </c>
+      <c r="G17">
+        <f>F17/1000</f>
+        <v/>
+      </c>
+      <c r="H17">
+        <f>F17*Dimensionamiento!$B$9</f>
+        <v/>
+      </c>
+      <c r="I17">
+        <f>H17/1000</f>
+        <v/>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1063,23 +1143,28 @@
       <c r="C18" t="n">
         <v>15</v>
       </c>
-      <c r="D18" t="n">
-        <v>15</v>
+      <c r="D18">
+        <f>B18*C18</f>
+        <v/>
       </c>
       <c r="E18" t="n">
         <v>6</v>
       </c>
-      <c r="F18" t="n">
-        <v>90</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H18" t="n">
-        <v>90</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.09</v>
+      <c r="F18">
+        <f>D18*E18</f>
+        <v/>
+      </c>
+      <c r="G18">
+        <f>F18/1000</f>
+        <v/>
+      </c>
+      <c r="H18">
+        <f>F18*Dimensionamiento!$B$9</f>
+        <v/>
+      </c>
+      <c r="I18">
+        <f>H18/1000</f>
+        <v/>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1099,23 +1184,28 @@
       <c r="C19" t="n">
         <v>80</v>
       </c>
-      <c r="D19" t="n">
-        <v>80</v>
+      <c r="D19">
+        <f>B19*C19</f>
+        <v/>
       </c>
       <c r="E19" t="n">
         <v>3</v>
       </c>
-      <c r="F19" t="n">
-        <v>240</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="H19" t="n">
-        <v>240</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.24</v>
+      <c r="F19">
+        <f>D19*E19</f>
+        <v/>
+      </c>
+      <c r="G19">
+        <f>F19/1000</f>
+        <v/>
+      </c>
+      <c r="H19">
+        <f>F19*Dimensionamiento!$B$9</f>
+        <v/>
+      </c>
+      <c r="I19">
+        <f>H19/1000</f>
+        <v/>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1129,24 +1219,29 @@
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>15725</v>
-      </c>
-      <c r="F20" t="n">
-        <v>22325</v>
-      </c>
-      <c r="G20" t="n">
-        <v>22.325</v>
-      </c>
-      <c r="H20" t="n">
-        <v>22325</v>
-      </c>
-      <c r="I20" t="n">
-        <v>22.325</v>
+      <c r="D20">
+        <f>SUM(D2:D19)</f>
+        <v/>
+      </c>
+      <c r="F20">
+        <f>SUM(F2:F19)</f>
+        <v/>
+      </c>
+      <c r="G20">
+        <f>SUM(G2:G19)</f>
+        <v/>
+      </c>
+      <c r="H20">
+        <f>SUM(H2:H19)</f>
+        <v/>
+      </c>
+      <c r="I20">
+        <f>SUM(I2:I19)</f>
+        <v/>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Suma para 1 día</t>
+          <t>Suma para reserva</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1172,7 +1267,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Parametro</t>
+          <t>Supuesto</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1182,177 +1277,288 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Comentarios</t>
+          <t>Comentario</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Energía diaria total</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>22.32 kWh</t>
-        </is>
+          <t>DoD plomo</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Suma consumos</t>
+          <t>Editar si usas AGM/GEL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Reserva considerada</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1 día</t>
-        </is>
+          <t>DoD LiFePO4</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Misma energía diaria</t>
+          <t>Mayor profundidad de descarga</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Capacidad útil banco 48V</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>465.1 Ah</t>
-        </is>
+          <t>Módulo LiFePO4 (kWh)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.12</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sin margen DoD</t>
+          <t>Batería típica 100 Ah</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Capacidad banco 48V @80% DoD (Plomo)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>581.4 Ah</t>
-        </is>
+          <t>Tensión banco (V)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>48</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Protege baterías plomo</t>
+          <t>Sistema 48 Vcc</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Capacidad banco 48V @90% DoD (LiFePO4)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>516.8 Ah</t>
-        </is>
+          <t>PSH (h sol pico)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mayor profundidad de descarga</t>
+          <t>Ajustar a sitio</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Energía útil LiFePO4 requerida</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>24.81 kWh</t>
-        </is>
+          <t>Factor pérdidas</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1 día @90% DoD</t>
+          <t>Cableado, inversor, etc.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Módulos LiFePO4 5.12 kWh</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>5 unidades</t>
-        </is>
+          <t>Margen inversor</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.25</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cada módulo ≈100 Ah</t>
+          <t>25% sobre pico</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Potencia FV sugerida</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>5.58 kWp</t>
-        </is>
+          <t>Reserva días</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PSH=5h, pérdidas 20%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Tensión/Inversor</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>48 Vcc / 60 Hz</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sistema híbrido monofásico</t>
+          <t>Energía adicional</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Parámetro</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Valor</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Notas</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Ajustar datos con fichas reales</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Valores de referencia</t>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Energía diaria total (Wh)</t>
+        </is>
+      </c>
+      <c r="B12">
+        <f>Cargas!F20</f>
+        <v/>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Se actualiza con la tabla</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Energía diaria total (kWh)</t>
+        </is>
+      </c>
+      <c r="B13">
+        <f>Cargas!G20</f>
+        <v/>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Wh / 1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Energía para reserva (Wh)</t>
+        </is>
+      </c>
+      <c r="B14">
+        <f>Cargas!H20</f>
+        <v/>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Incluye días de respaldo</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Capacidad útil banco 48V (Ah)</t>
+        </is>
+      </c>
+      <c r="B15">
+        <f>Cargas!H20/Dimensionamiento!B5</f>
+        <v/>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Wh / V</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Banco @DoD 80% (Ah)</t>
+        </is>
+      </c>
+      <c r="B16">
+        <f>Cargas!H20/(Dimensionamiento!B5*Dimensionamiento!B2)</f>
+        <v/>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Plomo/AGM</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Banco LiFePO4 @90% (Ah)</t>
+        </is>
+      </c>
+      <c r="B17">
+        <f>Cargas!H20/(Dimensionamiento!B5*Dimensionamiento!B3)</f>
+        <v/>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mayor DoD</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Energía útil LiFePO4 (kWh)</t>
+        </is>
+      </c>
+      <c r="B18">
+        <f>Cargas!H20/1000/Dimensionamiento!B3</f>
+        <v/>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Wh / kWh / DoD</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Módulos LiFePO4 necesarios</t>
+        </is>
+      </c>
+      <c r="B19">
+        <f>ROUNDUP((Cargas!H20/1000/Dimensionamiento!B3)/Dimensionamiento!B4,0)</f>
+        <v/>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Cada módulo B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Potencia FV sugerida (kWp)</t>
+        </is>
+      </c>
+      <c r="B20">
+        <f>Cargas!G20/(Dimensionamiento!B6*Dimensionamiento!B7)</f>
+        <v/>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PSH y pérdidas</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1388,20 +1594,19 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Supuesto</t>
+          <t>Notas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Potencia pico considerada</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>8.8 kW</t>
-        </is>
+          <t>Potencia pico considerada (kW)</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>(LARGE(Cargas!$D$2:Cargas!$D$19,1)+LARGE(Cargas!$D$2:Cargas!$D$19,2)+LARGE(Cargas!$D$2:Cargas!$D$19,3))/1000</f>
+        <v/>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1412,121 +1617,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Inversor híbrido sugerido</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>11.0 kW</t>
-        </is>
+          <t>Inversor híbrido sugerido (kW)</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>B2*Dimensionamiento!B8</f>
+        <v/>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Margen 25% sobre pico</t>
+          <t>Margen sobre potencia pico</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Corriente DC @pico</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>229 A</t>
-        </is>
+          <t>Corriente DC @pico (A)</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>B3*1000/Dimensionamiento!B5</f>
+        <v/>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Inversor 48 Vcc</t>
+          <t>Inversor 48 V</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Carga promedio diaria</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.93 kW</t>
-        </is>
+          <t>Carga promedio diaria (kW)</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>Dimensionamiento!B13/24</f>
+        <v/>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Energía / 24h</t>
+          <t>kWh/24h</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Banco LiFePO4 recomendado</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>5 x 5.12 kWh</t>
-        </is>
+          <t>Banco LiFePO4 recomendado (Ah)</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>Dimensionamiento!B17</f>
+        <v/>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DoD 90%, ≈{capacitatea:=round(capacidad_banco_life_ah)} Ah</t>
+          <t>Ah requeridos @90% DoD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Reserva considerada</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1 día</t>
-        </is>
+          <t>Módulos LiFePO4 (5.12 kWh)</t>
+        </is>
+      </c>
+      <c r="B7">
+        <f>Dimensionamiento!B19</f>
+        <v/>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Replicar módulo para más días</t>
+          <t>Celdas de referencia</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Frecuencia de salida</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>60 Hz</t>
-        </is>
+          <t>Reserva considerada (días)</t>
+        </is>
+      </c>
+      <c r="B8">
+        <f>Dimensionamiento!B9</f>
+        <v/>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Monofásico 110 V</t>
+          <t>Editar en hoja de supuestos</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Frecuencia / tensión</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>48 Vcc / 60 Hz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sistema monofásico 110 V</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Notas</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Asegurar C-rate compatible con arranques</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Agregar cargas críticas</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ajusta simultaneidad y potencias reales</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
